--- a/biology/Zoologie/Calliphoridae/Calliphoridae.xlsx
+++ b/biology/Zoologie/Calliphoridae/Calliphoridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Calliphoridae communément surnommées « mouches vertes et bleues » sont une famille de diptères brachycères calyptères ayant l'aspect de mouches aux couleurs métalliques. Si la majorité sont coprophages et nécrophages, certaines espèces ont une importance médicale ou vétérinaire car génératrices de myiases.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Calliphoridae sont des mouches au corps robuste d’une taille de 4 à 16 mm aux couleurs métalliques bleu noir, bleu-violet, bleu-vert ou vert pour l’essentiel des espèces. Les genres Cordylobia et Auchmeromyia sont par contre de couleur jaunâtre ou brunâtre non métalliques. 
 Chez l'adulte, au niveau du thorax, le mésonotum présente quelques rangées de fortes soies, connues sous le nom de macrochètes. Les notopleures possèdent 2 soies bien développées (macrochètes notopleuraux) et les sternopleures ont 2 ou 3 macrochès sternopleuraux en position 1:1 ou 2:1, caractéristiques de la famille. Le macrochète posthuméral est situé latéralement par rapport au macrochète présutural.
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Calliphoridae ont des biologies très variées : elles sont en majorité nécrophages, coprophages ou détritiphages, parfois prédatrices ou parasitoïdes d'escargots (le genre Melanomya Rondani) ou de vers de terre (des espèces des genres Bellardia, Onesia et Pollenia).
 Les Calliphoridae sont habituellement les tout premiers insectes parvenant au contact d’un cadavre où va se dérouler le développement de leurs stades larvaires, devançant les larves de Sarcophagidae, Muscidae ou celles d’autres familles nécrophages.
@@ -578,17 +594,124 @@
           <t>Importance médicale et vétérinaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont des parasites « myasigènes » facultatifs ou obligatoires, c'est-à-dire que leurs larves se développent aux dépens de tissus vivants de l'hôte vertébré, dont l'homme. Citons Cordylobia anthropophaga (ver de Cayor) dont les infestations sont fréquentes en Afrique et se retrouvent en Europe chez les voyageurs en provenance d'Afrique. Auchmeromyia senegalensis (ver des cases) sévit en Afrique subsaharienne, provoquant des myiases hématophages. Cochliomyia hominivorax s'attaque au bétail ainsi qu'aux chevaux, moutons, chèvres, porcs, chiens mais également aux hommes. Chrysomya bezziana est un parasite obligatoire des mammifères, les larves se développant au niveau des blessures. 
 L'une des espèces de cette famille, Lucilia sericata, est utilisée traditionnellement et depuis quelques années par la médecine classique pour soigner les plaies au moyen de ses asticots (asticothérapie) ; mais il ne faut pas la confondre avec d'autres membres de la même famille qui peuvent consommer la chair vivante (ex. : Lucilia bufonivora).
-Cordylobia anthropophaga
-Le « ver de Cayor »  ou Cordylobia anthropophaga[1] est un parasite obligatoire de la peau en formant des furoncles à l’origine des « myiases furonculeuses ». Il parasite essentiellement le chien et l'homme, mais également le chat, le rat et le singe. Il sévit uniquement en Afrique subsaharienne.
-Cochliomyia hominivorax
-Cochliomyia hominivorax est une « mouche à viande » parasite obligatoire des mammifères et plus rarement des oiseaux. Sa répartition est strictement restreinte au Nouveau Monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calliphoridae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calliphoridae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Importance médicale et vétérinaire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cordylobia anthropophaga</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le « ver de Cayor »  ou Cordylobia anthropophaga est un parasite obligatoire de la peau en formant des furoncles à l’origine des « myiases furonculeuses ». Il parasite essentiellement le chien et l'homme, mais également le chat, le rat et le singe. Il sévit uniquement en Afrique subsaharienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calliphoridae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calliphoridae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Importance médicale et vétérinaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cochliomyia hominivorax</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cochliomyia hominivorax est une « mouche à viande » parasite obligatoire des mammifères et plus rarement des oiseaux. Sa répartition est strictement restreinte au Nouveau Monde.
 Les femelles ne pondent pas sur des cadavres, mais sur des individus vivants, au niveau des plaies ou des orifices naturels.
-Liste des genres et espèces myiasigènes
-Liste d'espèces qui provoquent des myases, c'est-à-dire des troubles dus à la présence de larves parasites dans un corps vivant, humain ou animal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calliphoridae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calliphoridae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Importance médicale et vétérinaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des genres et espèces myiasigènes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste d'espèces qui provoquent des myases, c'est-à-dire des troubles dus à la présence de larves parasites dans un corps vivant, humain ou animal.
 Auchmeromyia
 Auchmeromyia senegalensis (synonyme = A. luteola)
 Booponus
@@ -627,39 +750,110 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Calliphoridae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Calliphoridae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calliphoridae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calliphoridae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Classifications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La taxinomie des Calliphoridae fait l'objet d'études controversées. Elle diffère donc considérablement selon les sources consultées.
-Liste des sous-familles sur ITIS
-Selon ITIS      (15 mai 2010)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Calliphoridae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calliphoridae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classifications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles sur ITIS</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (15 mai 2010) :
 sous-famille Calliphorinae
-sous-famille Chrysomyiinae
-Liste des sous-familles et tribus sur NCBI
-Selon NCBI  (20 janv. 2011)[3] :
+sous-famille Chrysomyiinae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Calliphoridae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calliphoridae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classifications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles et tribus sur NCBI</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (20 janv. 2011) :
 sous-famille Auchmeromyiinae
 sous-famille Calliphorinae
 sous-famille Chrysomyinae
@@ -670,8 +864,43 @@
 sous-famille Mesembrinellinae
 sous-famille Polleniinae
 sous-famille Rhiniinae
-sous-famille Toxotarsinae
-Liste des genres les plus connus au niveau mondial
+sous-famille Toxotarsinae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Calliphoridae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calliphoridae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classifications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Liste des genres les plus connus au niveau mondial</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Abago Grunin 1966
 Acronesia Hall 1948
 Adichosina Villeneuve 1934
@@ -774,31 +1003,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Calliphoridae</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Calliphoridae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Calliphoridae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calliphoridae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Garry de N. Hough, « Some North American genera of the dipterous group, Calliphorinae Girschner », Entomological news, and proceedings of the Entomological Section of the Academy of Natural Sciences of Philadelphia, Philadelphie, Inconnu, vol. 10,‎ 1899, p. 62-66 (OCLC 1568007, lire en ligne)</t>
         </is>
